--- a/说明文档/回收模块说明.xlsx
+++ b/说明文档/回收模块说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="故障说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="161">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,565 @@
   </si>
   <si>
     <t>分拣B口检测对射传感器故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接点定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接器X1型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接器X2型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线缆名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR-IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线材型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC+24V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-24V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4201HF-2*2P(CJT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4201F-T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2508-T</t>
+  </si>
+  <si>
+    <t>A2508-T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2508H-5P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS232通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注塑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J10-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J10-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J10-3</t>
+  </si>
+  <si>
+    <t>DB9-5</t>
+  </si>
+  <si>
+    <t>DB9-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持电磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2508H-4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J18-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J18-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入票口电磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2508H-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J14-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J14-2</t>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退币口电磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J15-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J15-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J16-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J16-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收口电磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A票箱到位开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B票箱到位开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C票箱到位开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2008H-2*6P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2008-T-A</t>
+  </si>
+  <si>
+    <t>J20-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J20-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2008H-2*9P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2008-T-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2008-T-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2508-T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC+5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入票口对射传感器接收端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入票口对射传感器发射端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可控5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入票口关闭U型传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入票口打开U型传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2008H-2*9P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收口A通道U型传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收口B通道U型传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主控板J6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN回收模块线序表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退币口对射传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收口对射传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线区对射传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB9-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB9(母头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +655,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +670,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,13 +714,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -438,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -744,16 +1393,1778 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="14"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="17"/>
+    <col min="8" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="11.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10.75" style="14" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A52" s="11"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A54" s="11"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A55" s="11"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A56" s="11"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A57" s="11"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A58" s="11"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A61" s="11"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C33:C44"/>
+    <mergeCell ref="M33:M44"/>
+    <mergeCell ref="N33:N44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="M45:M50"/>
+    <mergeCell ref="N45:N50"/>
+    <mergeCell ref="C22:C32"/>
+    <mergeCell ref="N22:N32"/>
+    <mergeCell ref="M22:M32"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="N16:N21"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="L3:L4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
